--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF240"/>
+  <dimension ref="A1:AF241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31788,6 +31788,132 @@
       </c>
       <c r="AF240" t="inlineStr"/>
     </row>
+    <row r="241">
+      <c r="A241" t="n">
+        <v>255</v>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="E241" t="n">
+        <v>255</v>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>luz.educatic@gmail.com</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>Tres</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I241" t="n">
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr">
+        <is>
+          <t>Televisor, Video proyector</t>
+        </is>
+      </c>
+      <c r="K241" t="inlineStr">
+        <is>
+          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hay tv en algunas aulas, pero no todas y los docentes utilizan su computador personal para las proyecciones </t>
+        </is>
+      </c>
+      <c r="M241" t="n">
+        <v>70</v>
+      </c>
+      <c r="N241" t="n">
+        <v>60</v>
+      </c>
+      <c r="O241" t="n">
+        <v>0</v>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R241" t="n">
+        <v>0</v>
+      </c>
+      <c r="S241" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
+        </is>
+      </c>
+      <c r="T241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tenemos Scrach instalado y makecode lo usamos online </t>
+        </is>
+      </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V241" t="inlineStr"/>
+      <c r="W241" t="inlineStr"/>
+      <c r="X241" t="inlineStr"/>
+      <c r="Y241" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z241" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA241" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr"/>
+      <c r="AC241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE241" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF241" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF241"/>
+  <dimension ref="A1:AF242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31914,6 +31914,132 @@
       </c>
       <c r="AF241" t="inlineStr"/>
     </row>
+    <row r="242">
+      <c r="A242" t="n">
+        <v>256</v>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>26/05</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E242" t="n">
+        <v>256</v>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>monica.giraldo.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I242" t="n">
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="K242" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los televisores están instalados en algunas de las aulas, no en todas </t>
+        </is>
+      </c>
+      <c r="M242" t="n">
+        <v>75</v>
+      </c>
+      <c r="N242" t="n">
+        <v>55</v>
+      </c>
+      <c r="O242" t="n">
+        <v>0</v>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (32 bits)</t>
+        </is>
+      </c>
+      <c r="R242" t="n">
+        <v>0</v>
+      </c>
+      <c r="S242" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
+        </is>
+      </c>
+      <c r="T242" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algunos de los computadores tienen instalado Scratch2 y PSeInt. Algunos de los computadores se conectan en la nube, cuando esta conexión falla no se pueden usar los computadores, ni siquiera para el paquete de office o las aplicaciones descargadas </t>
+        </is>
+      </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V242" t="inlineStr"/>
+      <c r="W242" t="inlineStr"/>
+      <c r="X242" t="inlineStr"/>
+      <c r="Y242" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z242" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA242" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB242" t="inlineStr"/>
+      <c r="AC242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE242" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF242"/>
+  <dimension ref="A1:AF244"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32040,6 +32040,278 @@
       </c>
       <c r="AF242" t="inlineStr"/>
     </row>
+    <row r="243">
+      <c r="A243" t="n">
+        <v>257</v>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>031</t>
+        </is>
+      </c>
+      <c r="E243" t="n">
+        <v>257</v>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>angelica.mora.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I243" t="n">
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tablets </t>
+        </is>
+      </c>
+      <c r="K243" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Módem</t>
+        </is>
+      </c>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hay tablets en los salones y hace poco se realizó la entrega de aproximadamente 370 tablets, una para cada estudiante. Elementos como el videobeam están guardados en la coordinación, pero con el previo aviso se encuentran al alcance y disposición de los docentes, </t>
+        </is>
+      </c>
+      <c r="M243" t="n">
+        <v>76</v>
+      </c>
+      <c r="N243" t="n">
+        <v>76</v>
+      </c>
+      <c r="O243" t="n">
+        <v>35</v>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q243" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R243" t="n">
+        <v>0</v>
+      </c>
+      <c r="S243" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T243" t="inlineStr"/>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V243" t="n">
+        <v>300</v>
+      </c>
+      <c r="W243" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X243" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y243" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z243" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA243" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB243" t="inlineStr"/>
+      <c r="AC243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD243" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE243" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t>En la sede hay 3 cartillas impresas de las fichas metodológicas.</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="n">
+        <v>258</v>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>31/05</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>034</t>
+        </is>
+      </c>
+      <c r="E244" t="n">
+        <v>258</v>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>angelica.mora.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>Dos</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>Algunas sí, pero no todas</t>
+        </is>
+      </c>
+      <c r="I244" t="n">
+        <v>2</v>
+      </c>
+      <c r="J244" t="inlineStr">
+        <is>
+          <t>Video proyector</t>
+        </is>
+      </c>
+      <c r="K244" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Actualmente la sede cuenta con 2 salas de informática, una de ellas habilitada recientemente, en la otra funciona la técnica y algunos procesos de formación con el Sena, no obstante, en ambos espacios hay goteras. </t>
+        </is>
+      </c>
+      <c r="M244" t="n">
+        <v>60</v>
+      </c>
+      <c r="N244" t="n">
+        <v>55</v>
+      </c>
+      <c r="O244" t="n">
+        <v>0</v>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R244" t="n">
+        <v>0</v>
+      </c>
+      <c r="S244" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T244" t="inlineStr">
+        <is>
+          <t>Se menciona que todos los programas instalados o que deban instalarse deben contar con licencias</t>
+        </is>
+      </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V244" t="n">
+        <v>300</v>
+      </c>
+      <c r="W244" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X244" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y244" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z244" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA244" t="inlineStr">
+        <is>
+          <t>Cables cocodrilo, Soldadura electrónica, Cautines, Pelacables, Pinzas</t>
+        </is>
+      </c>
+      <c r="AB244" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estos elementos para desarrollo de proyectos de computación física como cables cocodrilo, pelacables, pinzas, entre otros son de mantenimiento básico y los utilizados por los estudiantes de la media técnica en sistemas (grados 10° y 11° de la jornada de la mañana) </t>
+        </is>
+      </c>
+      <c r="AC244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD244" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE244" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF244"/>
+  <dimension ref="A1:AF245"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32312,6 +32312,140 @@
       </c>
       <c r="AF244" t="inlineStr"/>
     </row>
+    <row r="245">
+      <c r="A245" t="n">
+        <v>259</v>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>01/06</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="E245" t="n">
+        <v>259</v>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>alex.carlosama.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I245" t="n">
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr">
+        <is>
+          <t>Televisor, Sistema de audio, Video proyector</t>
+        </is>
+      </c>
+      <c r="K245" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Red WIfi</t>
+        </is>
+      </c>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>La sala #2 de la IE, está fuera de servicio y los computadores se encuentran obsoletos.</t>
+        </is>
+      </c>
+      <c r="M245" t="n">
+        <v>57</v>
+      </c>
+      <c r="N245" t="n">
+        <v>45</v>
+      </c>
+      <c r="O245" t="n">
+        <v>0</v>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>Algunos de ellos</t>
+        </is>
+      </c>
+      <c r="Q245" t="inlineStr">
+        <is>
+          <t>Windows 10</t>
+        </is>
+      </c>
+      <c r="R245" t="n">
+        <v>0</v>
+      </c>
+      <c r="S245" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Editor de Imágenes</t>
+        </is>
+      </c>
+      <c r="T245" t="inlineStr"/>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V245" t="n">
+        <v>30</v>
+      </c>
+      <c r="W245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X245" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y245" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z245" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA245" t="inlineStr">
+        <is>
+          <t>Kit ruta Stem</t>
+        </is>
+      </c>
+      <c r="AB245" t="inlineStr">
+        <is>
+          <t>No existen tales elementos y el kit de ruta stem es tiene muy pocos elementos para trabajar en grupos grandes.</t>
+        </is>
+      </c>
+      <c r="AC245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD245" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE245" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF245" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF245"/>
+  <dimension ref="A1:AF246"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32446,6 +32446,148 @@
       </c>
       <c r="AF245" t="inlineStr"/>
     </row>
+    <row r="246">
+      <c r="A246" t="n">
+        <v>260</v>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>01/06</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="E246" t="n">
+        <v>260</v>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>monica.cristancho.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>Cinco</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I246" t="n">
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr">
+        <is>
+          <t>Televisor, Video proyector</t>
+        </is>
+      </c>
+      <c r="K246" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>Hay video proyectores disponibles para préstamo</t>
+        </is>
+      </c>
+      <c r="M246" t="n">
+        <v>112</v>
+      </c>
+      <c r="N246" t="n">
+        <v>108</v>
+      </c>
+      <c r="O246" t="n">
+        <v>20</v>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R246" t="n">
+        <v>0</v>
+      </c>
+      <c r="S246" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La conectividad no es muy estable y hay algunos equipos que necesitan mantenimiento </t>
+        </is>
+      </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V246" t="n">
+        <v>10</v>
+      </c>
+      <c r="W246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X246" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y246" t="inlineStr">
+        <is>
+          <t>Arduino, Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z246" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA246" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los estudiante llevan los materiales para las practicas </t>
+        </is>
+      </c>
+      <c r="AC246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD246" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La docente líder maneja este tipo de actividades pero lo demás profes del área de tecnología no. </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF246"/>
+  <dimension ref="A1:AF247"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32588,6 +32588,140 @@
         </is>
       </c>
     </row>
+    <row r="247">
+      <c r="A247" t="n">
+        <v>261</v>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="E247" t="n">
+        <v>261</v>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>alex.carlosama.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>Tres</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I247" t="n">
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr">
+        <is>
+          <t>Televisor, Sistema de audio, Video proyector</t>
+        </is>
+      </c>
+      <c r="K247" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Redes Wifi</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>Existen dos salas para el área de TI y la tercer sala es de Biliguismo</t>
+        </is>
+      </c>
+      <c r="M247" t="n">
+        <v>114</v>
+      </c>
+      <c r="N247" t="n">
+        <v>114</v>
+      </c>
+      <c r="O247" t="n">
+        <v>38</v>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>Algunos de ellos</t>
+        </is>
+      </c>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Windows 10</t>
+        </is>
+      </c>
+      <c r="R247" t="n">
+        <v>0</v>
+      </c>
+      <c r="S247" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr"/>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V247" t="n">
+        <v>30</v>
+      </c>
+      <c r="W247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X247" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y247" t="inlineStr">
+        <is>
+          <t>Arduino, Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z247" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA247" t="inlineStr">
+        <is>
+          <t>Kit Ruta Stem y 4 kits arduino</t>
+        </is>
+      </c>
+      <c r="AB247" t="inlineStr"/>
+      <c r="AC247" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD247" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE247" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr">
+        <is>
+          <t>El material desconectado corresponde al incluido en el kit de Ruta Stem</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF247"/>
+  <dimension ref="A1:AF248"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32722,6 +32722,140 @@
         </is>
       </c>
     </row>
+    <row r="248">
+      <c r="A248" t="n">
+        <v>262</v>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>03/06</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E248" t="n">
+        <v>262</v>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>iriam.ganem.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>Una</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I248" t="n">
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="K248" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>Solo en algunas alúas de clase hay televisores. y en cuanto a la infraestructura de telecomunicaciones solo hay en la sala de informática.</t>
+        </is>
+      </c>
+      <c r="M248" t="n">
+        <v>23</v>
+      </c>
+      <c r="N248" t="n">
+        <v>21</v>
+      </c>
+      <c r="O248" t="n">
+        <v>0</v>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Windows 10 pro</t>
+        </is>
+      </c>
+      <c r="R248" t="n">
+        <v>0</v>
+      </c>
+      <c r="S248" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Makecode se trabaja en línea </t>
+        </is>
+      </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V248" t="inlineStr"/>
+      <c r="W248" t="inlineStr"/>
+      <c r="X248" t="inlineStr"/>
+      <c r="Y248" t="inlineStr">
+        <is>
+          <t>Arduino, Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z248" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA248" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB248" t="inlineStr">
+        <is>
+          <t>Solo tienen las micro:bit</t>
+        </is>
+      </c>
+      <c r="AC248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD248" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE248" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF248" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Para trabajar actividades desconectadas el material que hay son las fichas de CFK </t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF248"/>
+  <dimension ref="A1:AF249"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32848,6 +32848,124 @@
       </c>
       <c r="AF248" t="inlineStr"/>
     </row>
+    <row r="249">
+      <c r="A249" t="n">
+        <v>264</v>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>07/06</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="E249" t="n">
+        <v>264</v>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>monica.cote.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>Dos</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I249" t="n">
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr">
+        <is>
+          <t>Televisor, Video proyector, en algunos salones</t>
+        </is>
+      </c>
+      <c r="K249" t="inlineStr">
+        <is>
+          <t>Puertos de cableado estructurado para conexión a la red, en algunos salones</t>
+        </is>
+      </c>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="n">
+        <v>60</v>
+      </c>
+      <c r="N249" t="n">
+        <v>50</v>
+      </c>
+      <c r="O249" t="n">
+        <v>0</v>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (32 bits)</t>
+        </is>
+      </c>
+      <c r="R249" t="n">
+        <v>0</v>
+      </c>
+      <c r="S249" t="inlineStr">
+        <is>
+          <t>Ninguno de los anteriores</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr"/>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V249" t="inlineStr"/>
+      <c r="W249" t="inlineStr"/>
+      <c r="X249" t="inlineStr"/>
+      <c r="Y249" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z249" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA249" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB249" t="inlineStr"/>
+      <c r="AC249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AE249" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF249" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF249"/>
+  <dimension ref="A1:AF250"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32966,6 +32966,124 @@
       </c>
       <c r="AF249" t="inlineStr"/>
     </row>
+    <row r="250">
+      <c r="A250" t="n">
+        <v>265</v>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>08/06</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="E250" t="n">
+        <v>265</v>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>monica.giraldo.cfk2022@gmail.com</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>Tres</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr">
+        <is>
+          <t>Algunas sí, pero no todas</t>
+        </is>
+      </c>
+      <c r="I250" t="n">
+        <v>10</v>
+      </c>
+      <c r="J250" t="inlineStr">
+        <is>
+          <t>Televisor</t>
+        </is>
+      </c>
+      <c r="K250" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="n">
+        <v>120</v>
+      </c>
+      <c r="N250" t="n">
+        <v>100</v>
+      </c>
+      <c r="O250" t="n">
+        <v>0</v>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q250" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (32 bits)</t>
+        </is>
+      </c>
+      <c r="R250" t="n">
+        <v>0</v>
+      </c>
+      <c r="S250" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr"/>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V250" t="inlineStr"/>
+      <c r="W250" t="inlineStr"/>
+      <c r="X250" t="inlineStr"/>
+      <c r="Y250" t="inlineStr">
+        <is>
+          <t>Arduino, Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z250" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA250" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB250" t="inlineStr"/>
+      <c r="AC250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE250" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF250" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF250"/>
+  <dimension ref="A1:AF251"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33084,6 +33084,138 @@
       </c>
       <c r="AF250" t="inlineStr"/>
     </row>
+    <row r="251">
+      <c r="A251" t="n">
+        <v>266</v>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>09/06</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>011</t>
+        </is>
+      </c>
+      <c r="E251" t="n">
+        <v>266</v>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>Ingmerrcador@gmail.com</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>Tres</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I251" t="n">
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr">
+        <is>
+          <t>Televisor, Sistema de audio</t>
+        </is>
+      </c>
+      <c r="K251" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Solo hay una sala de informatica con cableado estruturado, la otras 2 tienen acceso a internet por redes inalambricas.</t>
+        </is>
+      </c>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="n">
+        <v>120</v>
+      </c>
+      <c r="N251" t="n">
+        <v>80</v>
+      </c>
+      <c r="O251" t="n">
+        <v>1</v>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R251" t="n">
+        <v>0</v>
+      </c>
+      <c r="S251" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Muchos funcionales pero con teclas dañadas.
+</t>
+        </is>
+      </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V251" t="n">
+        <v>10</v>
+      </c>
+      <c r="W251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X251" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y251" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z251" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA251" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB251" t="inlineStr"/>
+      <c r="AC251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD251" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE251" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF251" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -27638,7 +27638,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
@@ -27652,20 +27652,20 @@
       </c>
       <c r="D209" t="inlineStr">
         <is>
-          <t>099</t>
+          <t>173</t>
         </is>
       </c>
       <c r="E209" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>fredy.castellanos.cfk2022@gmail.com</t>
+          <t>lady.mora.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
@@ -27678,32 +27678,36 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Video proyector solo en algunas salas</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
-        </is>
-      </c>
-      <c r="L209" t="inlineStr"/>
+          <t>Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>El Internet es intermitente.</t>
+        </is>
+      </c>
       <c r="M209" t="n">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="N209" t="n">
-        <v>135</v>
+        <v>65</v>
       </c>
       <c r="O209" t="n">
         <v>0</v>
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>Windows 10 x64</t>
+          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R209" t="n">
@@ -27711,12 +27715,12 @@
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
       <c r="T209" t="inlineStr">
         <is>
-          <t>Los docentes sugieren licencias de microsoft office y tener conectividad a internet</t>
+          <t>A pesar de haber un cableado estructurado en las instalaciones de la institución, la red es bastante lenta</t>
         </is>
       </c>
       <c r="U209" t="inlineStr">
@@ -27733,14 +27737,18 @@
         </is>
       </c>
       <c r="Z209" t="n">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="AA209" t="inlineStr">
         <is>
-          <t>Sensores, LEDs, Servomotores, Tarjetas expansoras GPIO para micro:bit</t>
-        </is>
-      </c>
-      <c r="AB209" t="inlineStr"/>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB209" t="inlineStr">
+        <is>
+          <t>No hay ningún recurso de algún otro curso steam en la institución.</t>
+        </is>
+      </c>
       <c r="AC209" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -27748,23 +27756,23 @@
       </c>
       <c r="AD209" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE209" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>13/05</t>
+          <t>14/05</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -27774,20 +27782,20 @@
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>015</t>
         </is>
       </c>
       <c r="E210" t="n">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>lady.mora.cfk2022@gmail.com</t>
+          <t>ana.vente.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Cinco</t>
         </is>
       </c>
       <c r="H210" t="inlineStr">
@@ -27800,27 +27808,23 @@
       </c>
       <c r="J210" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K210" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red</t>
-        </is>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>El Internet es intermitente.</t>
-        </is>
-      </c>
+          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
-        <v>75</v>
+        <v>200</v>
       </c>
       <c r="N210" t="n">
-        <v>65</v>
+        <v>190</v>
       </c>
       <c r="O210" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P210" t="inlineStr">
         <is>
@@ -27829,7 +27833,7 @@
       </c>
       <c r="Q210" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R210" t="n">
@@ -27837,40 +27841,40 @@
       </c>
       <c r="S210" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T210" t="inlineStr">
-        <is>
-          <t>A pesar de haber un cableado estructurado en las instalaciones de la institución, la red es bastante lenta</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T210" t="inlineStr"/>
       <c r="U210" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V210" t="inlineStr"/>
-      <c r="W210" t="inlineStr"/>
-      <c r="X210" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V210" t="n">
+        <v>0</v>
+      </c>
+      <c r="W210" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X210" t="n">
+        <v>0</v>
+      </c>
       <c r="Y210" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z210" t="n">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="AA210" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB210" t="inlineStr">
-        <is>
-          <t>No hay ningún recurso de algún otro curso steam en la institución.</t>
-        </is>
-      </c>
+          <t>No hay ningún elemento adicional a las micro:bits, Tarjetas TecPro</t>
+        </is>
+      </c>
+      <c r="AB210" t="inlineStr"/>
       <c r="AC210" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -27878,23 +27882,23 @@
       </c>
       <c r="AD210" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE210" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>14/05</t>
+          <t>15/05</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -27904,20 +27908,20 @@
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>015</t>
+          <t>016</t>
         </is>
       </c>
       <c r="E211" t="n">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>ana.vente.cfk2022@gmail.com</t>
+          <t>d.cab.sandra.cantin@cali.edu.co</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Cinco</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H211" t="inlineStr">
@@ -27930,23 +27934,27 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
-        </is>
-      </c>
-      <c r="L211" t="inlineStr"/>
+          <t>Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cableado solo en las salas de sistemas </t>
+        </is>
+      </c>
       <c r="M211" t="n">
-        <v>200</v>
+        <v>50</v>
       </c>
       <c r="N211" t="n">
-        <v>190</v>
+        <v>30</v>
       </c>
       <c r="O211" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P211" t="inlineStr">
         <is>
@@ -27963,64 +27971,68 @@
       </c>
       <c r="S211" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
-        </is>
-      </c>
-      <c r="T211" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Scratch</t>
+        </is>
+      </c>
+      <c r="T211" t="inlineStr">
+        <is>
+          <t>No está unificado el Windows, ni el office por la versión de computadores</t>
+        </is>
+      </c>
       <c r="U211" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V211" t="n">
-        <v>0</v>
-      </c>
-      <c r="W211" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X211" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
       <c r="Y211" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z211" t="n">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="AA211" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits, Tarjetas TecPro</t>
-        </is>
-      </c>
-      <c r="AB211" t="inlineStr"/>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Está información es de la sede de bachillerato </t>
+        </is>
+      </c>
       <c r="AC211" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD211" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE211" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF211" t="inlineStr"/>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">No conozco otras herramientas de la institución </t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>15/05</t>
+          <t>16/05</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -28030,20 +28042,20 @@
       </c>
       <c r="D212" t="inlineStr">
         <is>
-          <t>016</t>
+          <t>191</t>
         </is>
       </c>
       <c r="E212" t="n">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>d.cab.sandra.cantin@cali.edu.co</t>
+          <t>luz.educatic@gmail.com</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H212" t="inlineStr">
@@ -28052,63 +28064,63 @@
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red</t>
-        </is>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cableado solo en las salas de sistemas </t>
-        </is>
-      </c>
+          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="N212" t="n">
+        <v>60</v>
+      </c>
+      <c r="O212" t="n">
+        <v>0</v>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>0</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V212" t="n">
         <v>30</v>
       </c>
-      <c r="O212" t="n">
-        <v>0</v>
-      </c>
-      <c r="P212" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="Q212" t="inlineStr">
-        <is>
-          <t>Windows 7 o superior (64 bits)</t>
-        </is>
-      </c>
-      <c r="R212" t="n">
-        <v>0</v>
-      </c>
-      <c r="S212" t="inlineStr">
-        <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Scratch</t>
-        </is>
-      </c>
-      <c r="T212" t="inlineStr">
-        <is>
-          <t>No está unificado el Windows, ni el office por la versión de computadores</t>
-        </is>
-      </c>
-      <c r="U212" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V212" t="inlineStr"/>
-      <c r="W212" t="inlineStr"/>
-      <c r="X212" t="inlineStr"/>
+      <c r="W212" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X212" t="n">
+        <v>0</v>
+      </c>
       <c r="Y212" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
@@ -28122,11 +28134,7 @@
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Está información es de la sede de bachillerato </t>
-        </is>
-      </c>
+      <c r="AB212" t="inlineStr"/>
       <c r="AC212" t="inlineStr">
         <is>
           <t>No</t>
@@ -28142,15 +28150,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF212" t="inlineStr">
-        <is>
-          <t xml:space="preserve">No conozco otras herramientas de la institución </t>
-        </is>
-      </c>
+      <c r="AF212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
@@ -28164,29 +28168,29 @@
       </c>
       <c r="D213" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>244</t>
         </is>
       </c>
       <c r="E213" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>luz.educatic@gmail.com</t>
+          <t>willy.vivas@iefedericoozanam.edu.co</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>6</t>
         </is>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J213" t="inlineStr">
         <is>
@@ -28195,15 +28199,15 @@
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+          <t>Redes eléctricas, se conecta via wifi</t>
         </is>
       </c>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
-        <v>60</v>
+        <v>330</v>
       </c>
       <c r="N213" t="n">
-        <v>60</v>
+        <v>280</v>
       </c>
       <c r="O213" t="n">
         <v>0</v>
@@ -28219,11 +28223,11 @@
         </is>
       </c>
       <c r="R213" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés), java, python, visual studio, .net, visual studio code, pseint</t>
         </is>
       </c>
       <c r="T213" t="inlineStr"/>
@@ -28233,7 +28237,7 @@
         </is>
       </c>
       <c r="V213" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="W213" t="inlineStr">
         <is>
@@ -28245,15 +28249,15 @@
       </c>
       <c r="Y213" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Raspberry Pi, Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z213" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AA213" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
+          <t>Sensores, Servomotores</t>
         </is>
       </c>
       <c r="AB213" t="inlineStr"/>
@@ -28264,19 +28268,19 @@
       </c>
       <c r="AD213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE213" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
@@ -28290,25 +28294,25 @@
       </c>
       <c r="D214" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>060</t>
         </is>
       </c>
       <c r="E214" t="n">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>iriam.ganem.cfk2022@gmail.com</t>
+          <t>Daniel.cortes.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Cinco</t>
         </is>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I214" t="n">
@@ -28316,24 +28320,20 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
-        </is>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Actualmente la institución no tiene equipos de computo ya que fueron robados </t>
-        </is>
-      </c>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="N214" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="O214" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>No hay equipos de computo</t>
+          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R214" t="n">
@@ -28353,14 +28353,10 @@
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>Ninguno de los anteriores</t>
-        </is>
-      </c>
-      <c r="T214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Los equipos de computo fueron robados </t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr"/>
       <c r="U214" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -28371,7 +28367,7 @@
       </c>
       <c r="W214" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X214" t="n">
@@ -28379,22 +28375,18 @@
       </c>
       <c r="Y214" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z214" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="AA214" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB214" t="inlineStr">
-        <is>
-          <t>Solo cuentan con las miro:bit</t>
-        </is>
-      </c>
+          <t>Sensores, LEDs, Servomotores, Cables cocodrilo</t>
+        </is>
+      </c>
+      <c r="AB214" t="inlineStr"/>
       <c r="AC214" t="inlineStr">
         <is>
           <t>No</t>
@@ -28407,18 +28399,14 @@
       </c>
       <c r="AE214" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF214" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Solo las actividades desconectadas de las fichas </t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
@@ -28432,29 +28420,29 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>140</t>
         </is>
       </c>
       <c r="E215" t="n">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>willy.vivas@iefedericoozanam.edu.co</t>
+          <t>carolina.timana.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr">
         <is>
@@ -28463,22 +28451,26 @@
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>Redes eléctricas, se conecta via wifi</t>
-        </is>
-      </c>
-      <c r="L215" t="inlineStr"/>
+          <t>Redes eléctricas</t>
+        </is>
+      </c>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>Existe una red de internet de claro en  el programa centros digitales pero no funciona se quemo el receptor y la estructura esta dañada</t>
+        </is>
+      </c>
       <c r="M215" t="n">
-        <v>330</v>
+        <v>122</v>
       </c>
       <c r="N215" t="n">
-        <v>280</v>
+        <v>122</v>
       </c>
       <c r="O215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
@@ -28487,25 +28479,29 @@
         </is>
       </c>
       <c r="R215" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés), java, python, visual studio, .net, visual studio code, pseint</t>
-        </is>
-      </c>
-      <c r="T215" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>El internet es necesario para esta institución y el no tenerlo les limitan muchas capacitaciones a nivel de formación docente cómo para la enseñanza a sus estudiantes</t>
+        </is>
+      </c>
       <c r="U215" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V215" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="W215" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X215" t="n">
@@ -28513,7 +28509,7 @@
       </c>
       <c r="Y215" t="inlineStr">
         <is>
-          <t>Raspberry Pi, Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z215" t="n">
@@ -28521,10 +28517,14 @@
       </c>
       <c r="AA215" t="inlineStr">
         <is>
-          <t>Sensores, Servomotores</t>
-        </is>
-      </c>
-      <c r="AB215" t="inlineStr"/>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB215" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Existen muchos equipos portátiles pero no existen instalaciones adecuadas para utilizarlos partiendo que la energía con la que se alimenta la institución es solar faltarían más paneles para proveer una mejor fuente de energía </t>
+        </is>
+      </c>
       <c r="AC215" t="inlineStr">
         <is>
           <t>No</t>
@@ -28532,19 +28532,19 @@
       </c>
       <c r="AD215" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE215" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
@@ -28558,25 +28558,25 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>060</t>
+          <t>024</t>
         </is>
       </c>
       <c r="E216" t="n">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>Daniel.cortes.cfk2022@gmail.com</t>
+          <t>anabell.zuniga.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Cinco</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I216" t="n">
@@ -28584,20 +28584,24 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
-        </is>
-      </c>
-      <c r="L216" t="inlineStr"/>
+          <t>Redes eléctricas</t>
+        </is>
+      </c>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>No cuentan con infraestructura de Telecomunicaciones</t>
+        </is>
+      </c>
       <c r="M216" t="n">
-        <v>170</v>
+        <v>55</v>
       </c>
       <c r="N216" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="O216" t="n">
         <v>0</v>
@@ -28617,7 +28621,7 @@
       </c>
       <c r="S216" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T216" t="inlineStr"/>
@@ -28627,11 +28631,11 @@
         </is>
       </c>
       <c r="V216" t="n">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="W216" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X216" t="n">
@@ -28639,18 +28643,22 @@
       </c>
       <c r="Y216" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z216" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA216" t="inlineStr">
         <is>
-          <t>Sensores, LEDs, Servomotores, Cables cocodrilo</t>
-        </is>
-      </c>
-      <c r="AB216" t="inlineStr"/>
+          <t>Sensores, Soldadura electrónica, Cautines, Pelacables, Pinzas</t>
+        </is>
+      </c>
+      <c r="AB216" t="inlineStr">
+        <is>
+          <t>Disponen de un kit STEM</t>
+        </is>
+      </c>
       <c r="AC216" t="inlineStr">
         <is>
           <t>No</t>
@@ -28658,7 +28666,7 @@
       </c>
       <c r="AD216" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE216" t="inlineStr">
@@ -28666,11 +28674,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr">
+        <is>
+          <t>No tienen kits desconectados. Cuentan con 1 Kit STEM y las microbits que obtuvieron los docentes, formados en vigencias anteriores.</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
@@ -28684,20 +28696,20 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>040</t>
         </is>
       </c>
       <c r="E217" t="n">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>carolina.timana.cfk2022@gmail.com</t>
+          <t>camilo.villota.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
@@ -28710,27 +28722,27 @@
       </c>
       <c r="J217" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K217" t="inlineStr">
         <is>
-          <t>Redes eléctricas</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
       <c r="L217" t="inlineStr">
         <is>
-          <t>Existe una red de internet de claro en  el programa centros digitales pero no funciona se quemo el receptor y la estructura esta dañada</t>
+          <t>No se cuenta con el servicio de Internet</t>
         </is>
       </c>
       <c r="M217" t="n">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="N217" t="n">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="O217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P217" t="inlineStr">
         <is>
@@ -28747,25 +28759,21 @@
       </c>
       <c r="S217" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T217" t="inlineStr">
-        <is>
-          <t>El internet es necesario para esta institución y el no tenerlo les limitan muchas capacitaciones a nivel de formación docente cómo para la enseñanza a sus estudiantes</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr"/>
       <c r="U217" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V217" t="n">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="W217" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X217" t="n">
@@ -28773,22 +28781,18 @@
       </c>
       <c r="Y217" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z217" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AA217" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB217" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Existen muchos equipos portátiles pero no existen instalaciones adecuadas para utilizarlos partiendo que la energía con la que se alimenta la institución es solar faltarían más paneles para proveer una mejor fuente de energía </t>
-        </is>
-      </c>
+      <c r="AB217" t="inlineStr"/>
       <c r="AC217" t="inlineStr">
         <is>
           <t>No</t>
@@ -28808,11 +28812,11 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>16/05</t>
+          <t>17/05</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -28822,15 +28826,15 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>024</t>
+          <t>017</t>
         </is>
       </c>
       <c r="E218" t="n">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>anabell.zuniga.cfk2022@gmail.com</t>
+          <t>a.nsf.fabian.rincon@cali.edu.co</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -28840,32 +28844,28 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I218" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="J218" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K218" t="inlineStr">
         <is>
-          <t>Redes eléctricas</t>
-        </is>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>No cuentan con infraestructura de Telecomunicaciones</t>
-        </is>
-      </c>
+          <t>Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="N218" t="n">
-        <v>55</v>
+        <v>24</v>
       </c>
       <c r="O218" t="n">
         <v>0</v>
@@ -28877,7 +28877,7 @@
       </c>
       <c r="Q218" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R218" t="n">
@@ -28885,47 +28885,43 @@
       </c>
       <c r="S218" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T218" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t xml:space="preserve">son portatiles mini </t>
+        </is>
+      </c>
       <c r="U218" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V218" t="n">
-        <v>22</v>
-      </c>
-      <c r="W218" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X218" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
       <c r="Y218" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>placa electronica y placa programable playboard</t>
         </is>
       </c>
       <c r="Z218" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AA218" t="inlineStr">
         <is>
-          <t>Sensores, Soldadura electrónica, Cautines, Pelacables, Pinzas</t>
+          <t>Sensores, LEDs, Cables cocodrilo</t>
         </is>
       </c>
       <c r="AB218" t="inlineStr">
         <is>
-          <t>Disponen de un kit STEM</t>
+          <t xml:space="preserve">sistema tecpro de norma que llego este año </t>
         </is>
       </c>
       <c r="AC218" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AD218" t="inlineStr">
@@ -28940,17 +28936,17 @@
       </c>
       <c r="AF218" t="inlineStr">
         <is>
-          <t>No tienen kits desconectados. Cuentan con 1 Kit STEM y las microbits que obtuvieron los docentes, formados en vigencias anteriores.</t>
+          <t>se pueden reproducir hasta 30 ya que se cuenta con fotocopiadora</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>16/05</t>
+          <t>17/05</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -28960,20 +28956,20 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>040</t>
+          <t>085</t>
         </is>
       </c>
       <c r="E219" t="n">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>camilo.villota.cfk2022@gmail.com</t>
+          <t>erika.miranda.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>No tiene</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
@@ -28986,7 +28982,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -28996,14 +28992,14 @@
       </c>
       <c r="L219" t="inlineStr">
         <is>
-          <t>No se cuenta con el servicio de Internet</t>
+          <t>La IE tiene la infraestructura WIFI pero no hay servicio Internet.</t>
         </is>
       </c>
       <c r="M219" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="N219" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="O219" t="n">
         <v>0</v>
@@ -29015,7 +29011,7 @@
       </c>
       <c r="Q219" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>No hay computadores</t>
         </is>
       </c>
       <c r="R219" t="n">
@@ -29023,33 +29019,25 @@
       </c>
       <c r="S219" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+          <t>Ninguno de los anteriores</t>
         </is>
       </c>
       <c r="T219" t="inlineStr"/>
       <c r="U219" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V219" t="n">
-        <v>60</v>
-      </c>
-      <c r="W219" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X219" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
       <c r="Y219" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z219" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA219" t="inlineStr">
         <is>
@@ -29076,7 +29064,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
@@ -29090,58 +29078,58 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>017</t>
+          <t>135</t>
         </is>
       </c>
       <c r="E220" t="n">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>a.nsf.fabian.rincon@cali.edu.co</t>
+          <t>carolina.timana.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I220" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K220" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red</t>
+          <t>Redes eléctricas</t>
         </is>
       </c>
       <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="N220" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O220" t="n">
         <v>0</v>
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R220" t="n">
@@ -29149,12 +29137,12 @@
       </c>
       <c r="S220" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T220" t="inlineStr">
         <is>
-          <t xml:space="preserve">son portatiles mini </t>
+          <t>Se requiere actualizar los equipos e instalar nuevas aulas de sistemas</t>
         </is>
       </c>
       <c r="U220" t="inlineStr">
@@ -29167,30 +29155,30 @@
       <c r="X220" t="inlineStr"/>
       <c r="Y220" t="inlineStr">
         <is>
-          <t>placa electronica y placa programable playboard</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z220" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="AA220" t="inlineStr">
         <is>
-          <t>Sensores, LEDs, Cables cocodrilo</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB220" t="inlineStr">
         <is>
-          <t xml:space="preserve">sistema tecpro de norma que llego este año </t>
+          <t>Las tabletas y los equipos portátiles de computadores para educar fueron robados en el tiempo de la pandemia</t>
         </is>
       </c>
       <c r="AC220" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AD220" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE220" t="inlineStr">
@@ -29200,13 +29188,13 @@
       </c>
       <c r="AF220" t="inlineStr">
         <is>
-          <t>se pueden reproducir hasta 30 ya que se cuenta con fotocopiadora</t>
+          <t>Existen 6 maletas Handy cricket pero solo hay las fichas lego ya no existen los componentes electrónicos</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
@@ -29220,33 +29208,33 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>085</t>
+          <t>233</t>
         </is>
       </c>
       <c r="E221" t="n">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>erika.miranda.cfk2022@gmail.com</t>
+          <t>monica.giraldo.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>No tiene</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I221" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K221" t="inlineStr">
@@ -29256,26 +29244,26 @@
       </c>
       <c r="L221" t="inlineStr">
         <is>
-          <t>La IE tiene la infraestructura WIFI pero no hay servicio Internet.</t>
+          <t>En pocas aulas hay televisor</t>
         </is>
       </c>
       <c r="M221" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="N221" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="O221" t="n">
         <v>0</v>
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
-          <t>No hay computadores</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R221" t="n">
@@ -29283,10 +29271,14 @@
       </c>
       <c r="S221" t="inlineStr">
         <is>
-          <t>Ninguno de los anteriores</t>
-        </is>
-      </c>
-      <c r="T221" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El paquete de oficina se encuentra instalado sólo en algunos computadores. Los que se conectan en la nube no permiten ningún tipo de descarga y limita accesos </t>
+        </is>
+      </c>
       <c r="U221" t="inlineStr">
         <is>
           <t>No</t>
@@ -29301,14 +29293,18 @@
         </is>
       </c>
       <c r="Z221" t="n">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="AA221" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La IE cuenta con unos kit de robótica, sin embargo no se logró acceso a ellos para determinar que contienen y su estado. </t>
+        </is>
+      </c>
       <c r="AC221" t="inlineStr">
         <is>
           <t>No</t>
@@ -29328,11 +29324,11 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>17/05</t>
+          <t>18/05</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -29342,15 +29338,15 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>038</t>
         </is>
       </c>
       <c r="E222" t="n">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>carolina.timana.cfk2022@gmail.com</t>
+          <t>camilo.villota.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -29368,27 +29364,27 @@
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Televisor, Video proyector, Pero no están en la sala, se tienen pero se usan cuando los profesores, 11 televisores, 5 videobeam.</t>
         </is>
       </c>
       <c r="K222" t="inlineStr">
         <is>
-          <t>Redes eléctricas</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Convenio alcaldía-ETB para el tema de conectividad pero no funciona.</t>
         </is>
       </c>
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>37</v>
+        <v>220</v>
       </c>
       <c r="N222" t="n">
-        <v>25</v>
+        <v>184</v>
       </c>
       <c r="O222" t="n">
         <v>0</v>
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
@@ -29401,29 +29397,33 @@
       </c>
       <c r="S222" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T222" t="inlineStr">
-        <is>
-          <t>Se requiere actualizar los equipos e instalar nuevas aulas de sistemas</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr"/>
       <c r="U222" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V222" t="inlineStr"/>
-      <c r="W222" t="inlineStr"/>
-      <c r="X222" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V222" t="n">
+        <v>220</v>
+      </c>
+      <c r="W222" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X222" t="n">
+        <v>0</v>
+      </c>
       <c r="Y222" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Afirman no tener las micro:bit</t>
         </is>
       </c>
       <c r="Z222" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AA222" t="inlineStr">
         <is>
@@ -29432,7 +29432,7 @@
       </c>
       <c r="AB222" t="inlineStr">
         <is>
-          <t>Las tabletas y los equipos portátiles de computadores para educar fueron robados en el tiempo de la pandemia</t>
+          <t>Al parecer la institución no ha recibido las micro:bit que se entragaron a docentes porque no están en inventario.</t>
         </is>
       </c>
       <c r="AC222" t="inlineStr">
@@ -29450,19 +29450,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF222" t="inlineStr">
-        <is>
-          <t>Existen 6 maletas Handy cricket pero solo hay las fichas lego ya no existen los componentes electrónicos</t>
-        </is>
-      </c>
+      <c r="AF222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>17/05</t>
+          <t>18/05</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -29472,29 +29468,29 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>146</t>
         </is>
       </c>
       <c r="E223" t="n">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>monica.giraldo.cfk2022@gmail.com</t>
+          <t>jhon.balcarcel.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr">
         <is>
@@ -29503,19 +29499,19 @@
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L223" t="inlineStr">
         <is>
-          <t>En pocas aulas hay televisor</t>
+          <t>Un aula de sistemas esta en proceso de adecuación y hay otra funcional</t>
         </is>
       </c>
       <c r="M223" t="n">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="N223" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="O223" t="n">
         <v>0</v>
@@ -29538,11 +29534,7 @@
           <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
-      <c r="T223" t="inlineStr">
-        <is>
-          <t xml:space="preserve">El paquete de oficina se encuentra instalado sólo en algunos computadores. Los que se conectan en la nube no permiten ningún tipo de descarga y limita accesos </t>
-        </is>
-      </c>
+      <c r="T223" t="inlineStr"/>
       <c r="U223" t="inlineStr">
         <is>
           <t>No</t>
@@ -29557,7 +29549,7 @@
         </is>
       </c>
       <c r="Z223" t="n">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="AA223" t="inlineStr">
         <is>
@@ -29566,7 +29558,7 @@
       </c>
       <c r="AB223" t="inlineStr">
         <is>
-          <t xml:space="preserve">La IE cuenta con unos kit de robótica, sin embargo no se logró acceso a ellos para determinar que contienen y su estado. </t>
+          <t>Sòlo estan limitados a los equipos de computo y las microbit</t>
         </is>
       </c>
       <c r="AC223" t="inlineStr">
@@ -29588,7 +29580,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
@@ -29602,20 +29594,20 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>038</t>
+          <t>194</t>
         </is>
       </c>
       <c r="E224" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>camilo.villota.cfk2022@gmail.com</t>
+          <t>yessicaeverts@gmail.com</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H224" t="inlineStr">
@@ -29628,27 +29620,31 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector, Pero no están en la sala, se tienen pero se usan cuando los profesores, 11 televisores, 5 videobeam.</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Convenio alcaldía-ETB para el tema de conectividad pero no funciona.</t>
-        </is>
-      </c>
-      <c r="L224" t="inlineStr"/>
+          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Se acabó el contrato de conexión a internet en el colegio y no se ha renovado. </t>
+        </is>
+      </c>
       <c r="M224" t="n">
-        <v>220</v>
+        <v>41</v>
       </c>
       <c r="N224" t="n">
-        <v>184</v>
+        <v>14</v>
       </c>
       <c r="O224" t="n">
         <v>0</v>
       </c>
       <c r="P224" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q224" t="inlineStr">
@@ -29671,7 +29667,7 @@
         </is>
       </c>
       <c r="V224" t="n">
-        <v>220</v>
+        <v>50</v>
       </c>
       <c r="W224" t="inlineStr">
         <is>
@@ -29683,22 +29679,18 @@
       </c>
       <c r="Y224" t="inlineStr">
         <is>
-          <t>Afirman no tener las micro:bit</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA224" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB224" t="inlineStr">
-        <is>
-          <t>Al parecer la institución no ha recibido las micro:bit que se entragaron a docentes porque no están en inventario.</t>
-        </is>
-      </c>
+      <c r="AB224" t="inlineStr"/>
       <c r="AC224" t="inlineStr">
         <is>
           <t>No</t>
@@ -29718,7 +29710,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
@@ -29732,20 +29724,20 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>207</t>
         </is>
       </c>
       <c r="E225" t="n">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>jhon.balcarcel.cfk2022@gmail.com</t>
+          <t>sami123rojare@yahoo.es</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H225" t="inlineStr">
@@ -29758,24 +29750,24 @@
       </c>
       <c r="J225" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K225" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+          <t>Redes eléctricas, Módem</t>
         </is>
       </c>
       <c r="L225" t="inlineStr">
         <is>
-          <t>Un aula de sistemas esta en proceso de adecuación y hay otra funcional</t>
+          <t>En la IE, se presenta mala señal de celular y la conectividad es muy deficiente para garantizar conexion a los equipos de computo de la sala.</t>
         </is>
       </c>
       <c r="M225" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N225" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="O225" t="n">
         <v>0</v>
@@ -29787,7 +29779,7 @@
       </c>
       <c r="Q225" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R225" t="n">
@@ -29795,10 +29787,14 @@
       </c>
       <c r="S225" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T225" t="inlineStr"/>
+          <t>Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés), no se tiene office instalado en los equipos</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>actualmente el docente de tecnologia, esta investigando sobre que programas utilizar en el aula de clase.</t>
+        </is>
+      </c>
       <c r="U225" t="inlineStr">
         <is>
           <t>No</t>
@@ -29809,11 +29805,11 @@
       <c r="X225" t="inlineStr"/>
       <c r="Y225" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit., solo 3 microbits</t>
         </is>
       </c>
       <c r="Z225" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AA225" t="inlineStr">
         <is>
@@ -29822,7 +29818,7 @@
       </c>
       <c r="AB225" t="inlineStr">
         <is>
-          <t>Sòlo estan limitados a los equipos de computo y las microbit</t>
+          <t>se cuenta con una buena sala de tecnología, pero carece de buena conectividad, en la ie recién instalaron un centro poblado de conectividad pero nunca funciona y no suple la capacidad del numero de estudiantes.</t>
         </is>
       </c>
       <c r="AC225" t="inlineStr">
@@ -29837,18 +29833,22 @@
       </c>
       <c r="AE225" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF225" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF225" t="inlineStr">
+        <is>
+          <t>solo se encuentran las cartillas que la docente formada ha realizado</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>18/05</t>
+          <t>19/05</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -29858,20 +29858,20 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>137</t>
         </is>
       </c>
       <c r="E226" t="n">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>yessicaeverts@gmail.com</t>
+          <t>carolina.timana.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H226" t="inlineStr">
@@ -29884,31 +29884,27 @@
       </c>
       <c r="J226" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K226" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
-        </is>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Se acabó el contrato de conexión a internet en el colegio y no se ha renovado. </t>
-        </is>
-      </c>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="N226" t="n">
-        <v>14</v>
+        <v>88</v>
       </c>
       <c r="O226" t="n">
         <v>0</v>
       </c>
       <c r="P226" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q226" t="inlineStr">
@@ -29931,11 +29927,11 @@
         </is>
       </c>
       <c r="V226" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="W226" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X226" t="n">
@@ -29943,15 +29939,15 @@
       </c>
       <c r="Y226" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z226" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA226" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
+          <t>LEDs, Servomotores, Cables cocodrilo</t>
         </is>
       </c>
       <c r="AB226" t="inlineStr"/>
@@ -29962,7 +29958,7 @@
       </c>
       <c r="AD226" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE226" t="inlineStr">
@@ -29970,15 +29966,19 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr">
+        <is>
+          <t>Existe en la Institución un (1) kit de ruta STEM</t>
+        </is>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>18/05</t>
+          <t>19/05</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -29988,20 +29988,20 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>018</t>
         </is>
       </c>
       <c r="E227" t="n">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>sami123rojare@yahoo.es</t>
+          <t>ana.vente.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H227" t="inlineStr">
@@ -30014,36 +30014,32 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Módem</t>
-        </is>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>En la IE, se presenta mala señal de celular y la conectividad es muy deficiente para garantizar conexion a los equipos de computo de la sala.</t>
-        </is>
-      </c>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
+        <v>44</v>
+      </c>
+      <c r="N227" t="n">
         <v>40</v>
       </c>
-      <c r="N227" t="n">
-        <v>30</v>
-      </c>
       <c r="O227" t="n">
         <v>0</v>
       </c>
       <c r="P227" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q227" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R227" t="n">
@@ -30051,12 +30047,12 @@
       </c>
       <c r="S227" t="inlineStr">
         <is>
-          <t>Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés), no se tiene office instalado en los equipos</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Psi</t>
         </is>
       </c>
       <c r="T227" t="inlineStr">
         <is>
-          <t>actualmente el docente de tecnologia, esta investigando sobre que programas utilizar en el aula de clase.</t>
+          <t xml:space="preserve">La sede tiene internet pero es muy deficiente </t>
         </is>
       </c>
       <c r="U227" t="inlineStr">
@@ -30069,22 +30065,18 @@
       <c r="X227" t="inlineStr"/>
       <c r="Y227" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit., solo 3 microbits</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z227" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AA227" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB227" t="inlineStr">
-        <is>
-          <t>se cuenta con una buena sala de tecnología, pero carece de buena conectividad, en la ie recién instalaron un centro poblado de conectividad pero nunca funciona y no suple la capacidad del numero de estudiantes.</t>
-        </is>
-      </c>
+      <c r="AB227" t="inlineStr"/>
       <c r="AC227" t="inlineStr">
         <is>
           <t>No</t>
@@ -30097,22 +30089,18 @@
       </c>
       <c r="AE227" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF227" t="inlineStr">
-        <is>
-          <t>solo se encuentran las cartillas que la docente formada ha realizado</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>19/05</t>
+          <t>20/05</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -30122,20 +30110,20 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>137</t>
+          <t>236</t>
         </is>
       </c>
       <c r="E228" t="n">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>carolina.timana.cfk2022@gmail.com</t>
+          <t>monica.giraldo.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Cuatro</t>
         </is>
       </c>
       <c r="H228" t="inlineStr">
@@ -30148,20 +30136,24 @@
       </c>
       <c r="J228" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K228" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
-        </is>
-      </c>
-      <c r="L228" t="inlineStr"/>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+        </is>
+      </c>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los televisores se encuentran en algunas aulas sobre todo de primaria. Los video beam, están en 3 salones fijos y 1 que se ubica itinerante  </t>
+        </is>
+      </c>
       <c r="M228" t="n">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="N228" t="n">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="O228" t="n">
         <v>0</v>
@@ -30173,7 +30165,7 @@
       </c>
       <c r="Q228" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R228" t="n">
@@ -30181,37 +30173,33 @@
       </c>
       <c r="S228" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T228" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t xml:space="preserve">El paquete de oficina está instalado sólo en algunos de los computadores, al igual que el software educativo, sin embargo no es muy empleado pues pesa mucho y la conectividad de la IE es muy deficiente </t>
+        </is>
+      </c>
       <c r="U228" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V228" t="n">
-        <v>24</v>
-      </c>
-      <c r="W228" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X228" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
       <c r="Y228" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z228" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AA228" t="inlineStr">
         <is>
-          <t>LEDs, Servomotores, Cables cocodrilo</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB228" t="inlineStr"/>
@@ -30222,7 +30210,7 @@
       </c>
       <c r="AD228" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE228" t="inlineStr">
@@ -30230,19 +30218,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF228" t="inlineStr">
-        <is>
-          <t>Existe en la Institución un (1) kit de ruta STEM</t>
-        </is>
-      </c>
+      <c r="AF228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>19/05</t>
+          <t>24/05</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -30252,20 +30236,20 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>018</t>
+          <t>248</t>
         </is>
       </c>
       <c r="E229" t="n">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>ana.vente.cfk2022@gmail.com</t>
+          <t>vilda.gomez.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H229" t="inlineStr">
@@ -30278,20 +30262,20 @@
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K229" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
       <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="N229" t="n">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="O229" t="n">
         <v>0</v>
@@ -30303,7 +30287,7 @@
       </c>
       <c r="Q229" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R229" t="n">
@@ -30311,29 +30295,37 @@
       </c>
       <c r="S229" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Psi</t>
+          <t>Paquete de software educativo (Ej. cursos de inglés), Solo tienen el software educativo de computadores para educar.</t>
         </is>
       </c>
       <c r="T229" t="inlineStr">
         <is>
-          <t xml:space="preserve">La sede tiene internet pero es muy deficiente </t>
+          <t>El internet se encuentra pero la conexión es bastante inestable y prácticamente no funciona.</t>
         </is>
       </c>
       <c r="U229" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V229" t="inlineStr"/>
-      <c r="W229" t="inlineStr"/>
-      <c r="X229" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V229" t="n">
+        <v>0</v>
+      </c>
+      <c r="W229" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="X229" t="n">
+        <v>0</v>
+      </c>
       <c r="Y229" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z229" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA229" t="inlineStr">
         <is>
@@ -30353,18 +30345,22 @@
       </c>
       <c r="AE229" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF229" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Solo cuentan con las cartillas de coding for kids </t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>20/05</t>
+          <t>24/05</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -30374,29 +30370,29 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>078</t>
         </is>
       </c>
       <c r="E230" t="n">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>monica.giraldo.cfk2022@gmail.com</t>
+          <t>aymober123@gmail.com</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Cuatro</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J230" t="inlineStr">
         <is>
@@ -30405,31 +30401,27 @@
       </c>
       <c r="K230" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
-        </is>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Los televisores se encuentran en algunas aulas sobre todo de primaria. Los video beam, están en 3 salones fijos y 1 que se ubica itinerante  </t>
-        </is>
-      </c>
+          <t>Redes eléctricas, Módem</t>
+        </is>
+      </c>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>101</v>
+        <v>42</v>
       </c>
       <c r="N230" t="n">
-        <v>85</v>
+        <v>42</v>
       </c>
       <c r="O230" t="n">
         <v>0</v>
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R230" t="n">
@@ -30437,29 +30429,37 @@
       </c>
       <c r="S230" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
         </is>
       </c>
       <c r="T230" t="inlineStr">
         <is>
-          <t xml:space="preserve">El paquete de oficina está instalado sólo en algunos de los computadores, al igual que el software educativo, sin embargo no es muy empleado pues pesa mucho y la conectividad de la IE es muy deficiente </t>
+          <t>El internet en la zona es de baja calidad</t>
         </is>
       </c>
       <c r="U230" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V230" t="inlineStr"/>
-      <c r="W230" t="inlineStr"/>
-      <c r="X230" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V230" t="n">
+        <v>100</v>
+      </c>
+      <c r="W230" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X230" t="n">
+        <v>0</v>
+      </c>
       <c r="Y230" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z230" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="AA230" t="inlineStr">
         <is>
@@ -30486,7 +30486,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
@@ -30500,20 +30500,20 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>139</t>
         </is>
       </c>
       <c r="E231" t="n">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>vilda.gomez.cfk2022@gmail.com</t>
+          <t>carolina.timana.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H231" t="inlineStr">
@@ -30526,32 +30526,32 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="N231" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="O231" t="n">
         <v>0</v>
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R231" t="n">
@@ -30559,12 +30559,12 @@
       </c>
       <c r="S231" t="inlineStr">
         <is>
-          <t>Paquete de software educativo (Ej. cursos de inglés), Solo tienen el software educativo de computadores para educar.</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T231" t="inlineStr">
         <is>
-          <t>El internet se encuentra pero la conexión es bastante inestable y prácticamente no funciona.</t>
+          <t xml:space="preserve">La mitad de los equipos están desactualizados </t>
         </is>
       </c>
       <c r="U231" t="inlineStr">
@@ -30573,11 +30573,11 @@
         </is>
       </c>
       <c r="V231" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="W231" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="X231" t="n">
@@ -30585,15 +30585,15 @@
       </c>
       <c r="Y231" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z231" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="AA231" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
+          <t>LEDs, Servomotores, Cables cocodrilo</t>
         </is>
       </c>
       <c r="AB231" t="inlineStr"/>
@@ -30604,23 +30604,23 @@
       </c>
       <c r="AD231" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE231" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AF231" t="inlineStr">
         <is>
-          <t xml:space="preserve">Solo cuentan con las cartillas de coding for kids </t>
+          <t xml:space="preserve">Existe un kit de Ruta STEM y contiene un kit desconectado </t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
@@ -30634,25 +30634,25 @@
       </c>
       <c r="D232" t="inlineStr">
         <is>
-          <t>078</t>
+          <t>025</t>
         </is>
       </c>
       <c r="E232" t="n">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>aymober123@gmail.com</t>
+          <t>anabell.zuniga.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I232" t="n">
@@ -30660,20 +30660,20 @@
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K232" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Módem</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="N232" t="n">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="O232" t="n">
         <v>0</v>
@@ -30685,7 +30685,7 @@
       </c>
       <c r="Q232" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R232" t="n">
@@ -30693,21 +30693,17 @@
       </c>
       <c r="S232" t="inlineStr">
         <is>
-          <t>Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
-        </is>
-      </c>
-      <c r="T232" t="inlineStr">
-        <is>
-          <t>El internet en la zona es de baja calidad</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr"/>
       <c r="U232" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V232" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="W232" t="inlineStr">
         <is>
@@ -30719,18 +30715,22 @@
       </c>
       <c r="Y232" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit., 6</t>
         </is>
       </c>
       <c r="Z232" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="AA232" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB232" t="inlineStr"/>
+      <c r="AB232" t="inlineStr">
+        <is>
+          <t>No disponen de Ningún elemento para el desarrollo de este tipo de proyectos</t>
+        </is>
+      </c>
       <c r="AC232" t="inlineStr">
         <is>
           <t>No</t>
@@ -30750,11 +30750,11 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>24/05</t>
+          <t>25/05</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -30764,33 +30764,33 @@
       </c>
       <c r="D233" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>084</t>
         </is>
       </c>
       <c r="E233" t="n">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>carolina.timana.cfk2022@gmail.com</t>
+          <t>paola.gonzalez.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Cinco</t>
         </is>
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -30800,22 +30800,22 @@
       </c>
       <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
-        <v>93</v>
+        <v>311</v>
       </c>
       <c r="N233" t="n">
-        <v>79</v>
+        <v>311</v>
       </c>
       <c r="O233" t="n">
         <v>0</v>
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits), Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R233" t="n">
@@ -30823,12 +30823,12 @@
       </c>
       <c r="S233" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
         </is>
       </c>
       <c r="T233" t="inlineStr">
         <is>
-          <t xml:space="preserve">La mitad de los equipos están desactualizados </t>
+          <t>Los equipos están obsoletos, no tienen mucha memoria, son lentos y usualmente el difícil conectarse a internet</t>
         </is>
       </c>
       <c r="U233" t="inlineStr">
@@ -30837,7 +30837,7 @@
         </is>
       </c>
       <c r="V233" t="n">
-        <v>10</v>
+        <v>785</v>
       </c>
       <c r="W233" t="inlineStr">
         <is>
@@ -30849,7 +30849,7 @@
       </c>
       <c r="Y233" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z233" t="n">
@@ -30857,7 +30857,7 @@
       </c>
       <c r="AA233" t="inlineStr">
         <is>
-          <t>LEDs, Servomotores, Cables cocodrilo</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB233" t="inlineStr"/>
@@ -30868,7 +30868,7 @@
       </c>
       <c r="AD233" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE233" t="inlineStr">
@@ -30876,19 +30876,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF233" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Existe un kit de Ruta STEM y contiene un kit desconectado </t>
-        </is>
-      </c>
+      <c r="AF233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>24/05</t>
+          <t>25/05</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -30898,20 +30894,20 @@
       </c>
       <c r="D234" t="inlineStr">
         <is>
-          <t>025</t>
+          <t>134</t>
         </is>
       </c>
       <c r="E234" t="n">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>anabell.zuniga.cfk2022@gmail.com</t>
+          <t>carolina.timana.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H234" t="inlineStr">
@@ -30920,36 +30916,36 @@
         </is>
       </c>
       <c r="I234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
       <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N234" t="n">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="O234" t="n">
         <v>0</v>
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R234" t="n">
@@ -30957,21 +30953,25 @@
       </c>
       <c r="S234" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T234" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T234" t="inlineStr">
+        <is>
+          <t>La institución educativa no cuenta con internet, sólo se cuenta con una sala de informática no se puede llevar a cabo las diferentes áreas todos los docentes no pueden acceder a ella</t>
+        </is>
+      </c>
       <c r="U234" t="inlineStr">
         <is>
           <t>Sí</t>
         </is>
       </c>
       <c r="V234" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="W234" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X234" t="n">
@@ -30979,22 +30979,18 @@
       </c>
       <c r="Y234" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit., 6</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z234" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AA234" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB234" t="inlineStr">
-        <is>
-          <t>No disponen de Ningún elemento para el desarrollo de este tipo de proyectos</t>
-        </is>
-      </c>
+          <t>LEDs, Servomotores, Cables cocodrilo</t>
+        </is>
+      </c>
+      <c r="AB234" t="inlineStr"/>
       <c r="AC234" t="inlineStr">
         <is>
           <t>No</t>
@@ -31002,7 +30998,7 @@
       </c>
       <c r="AD234" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE234" t="inlineStr">
@@ -31010,11 +31006,15 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF234" t="inlineStr"/>
+      <c r="AF234" t="inlineStr">
+        <is>
+          <t>Existe un kit de ruta stem con material desconectado</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
@@ -31028,46 +31028,46 @@
       </c>
       <c r="D235" t="inlineStr">
         <is>
-          <t>084</t>
+          <t>081</t>
         </is>
       </c>
       <c r="E235" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>paola.gonzalez.cfk2022@gmail.com</t>
+          <t>jatrupe@gmail.com</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Cinco</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>Televisor, tabletas</t>
         </is>
       </c>
       <c r="K235" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
         </is>
       </c>
       <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="N235" t="n">
-        <v>311</v>
+        <v>12</v>
       </c>
       <c r="O235" t="n">
         <v>0</v>
@@ -31087,12 +31087,12 @@
       </c>
       <c r="S235" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
       <c r="T235" t="inlineStr">
         <is>
-          <t>Los equipos están obsoletos, no tienen mucha memoria, son lentos y usualmente el difícil conectarse a internet</t>
+          <t>Las tabletas tiene poca capacidad en cuanto a procesador y disco duro, lo que se dificulta instalar cualquier tipo de programa</t>
         </is>
       </c>
       <c r="U235" t="inlineStr">
@@ -31101,7 +31101,7 @@
         </is>
       </c>
       <c r="V235" t="n">
-        <v>785</v>
+        <v>30</v>
       </c>
       <c r="W235" t="inlineStr">
         <is>
@@ -31113,11 +31113,11 @@
       </c>
       <c r="Y235" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>no hay</t>
         </is>
       </c>
       <c r="Z235" t="n">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="AA235" t="inlineStr">
         <is>
@@ -31144,7 +31144,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
@@ -31158,15 +31158,15 @@
       </c>
       <c r="D236" t="inlineStr">
         <is>
-          <t>134</t>
+          <t>245</t>
         </is>
       </c>
       <c r="E236" t="n">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>carolina.timana.cfk2022@gmail.com</t>
+          <t>rosmomo_1972@hotmail.com</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -31176,15 +31176,15 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -31194,17 +31194,17 @@
       </c>
       <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="N236" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="O236" t="n">
         <v>0</v>
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
@@ -31217,41 +31217,29 @@
       </c>
       <c r="S236" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
-        </is>
-      </c>
-      <c r="T236" t="inlineStr">
-        <is>
-          <t>La institución educativa no cuenta con internet, sólo se cuenta con una sala de informática no se puede llevar a cabo las diferentes áreas todos los docentes no pueden acceder a ella</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T236" t="inlineStr"/>
       <c r="U236" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V236" t="n">
-        <v>15</v>
-      </c>
-      <c r="W236" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X236" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V236" t="inlineStr"/>
+      <c r="W236" t="inlineStr"/>
+      <c r="X236" t="inlineStr"/>
       <c r="Y236" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z236" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AA236" t="inlineStr">
         <is>
-          <t>LEDs, Servomotores, Cables cocodrilo</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB236" t="inlineStr"/>
@@ -31270,15 +31258,11 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF236" t="inlineStr">
-        <is>
-          <t>Existe un kit de ruta stem con material desconectado</t>
-        </is>
-      </c>
+      <c r="AF236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
@@ -31292,25 +31276,25 @@
       </c>
       <c r="D237" t="inlineStr">
         <is>
-          <t>081</t>
+          <t>192</t>
         </is>
       </c>
       <c r="E237" t="n">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>jatrupe@gmail.com</t>
+          <t>inesitamendez66@gmail.com</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I237" t="n">
@@ -31318,20 +31302,24 @@
       </c>
       <c r="J237" t="inlineStr">
         <is>
-          <t>Televisor, tabletas</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K237" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
-        </is>
-      </c>
-      <c r="L237" t="inlineStr"/>
+          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Los docentes tienen un computador por área que se rota por las aulas que todas tienen tv. </t>
+        </is>
+      </c>
       <c r="M237" t="n">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="N237" t="n">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="O237" t="n">
         <v>0</v>
@@ -31343,7 +31331,7 @@
       </c>
       <c r="Q237" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R237" t="n">
@@ -31354,11 +31342,7 @@
           <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
-      <c r="T237" t="inlineStr">
-        <is>
-          <t>Las tabletas tiene poca capacidad en cuanto a procesador y disco duro, lo que se dificulta instalar cualquier tipo de programa</t>
-        </is>
-      </c>
+      <c r="T237" t="inlineStr"/>
       <c r="U237" t="inlineStr">
         <is>
           <t>Sí</t>
@@ -31377,18 +31361,22 @@
       </c>
       <c r="Y237" t="inlineStr">
         <is>
-          <t>no hay</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z237" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AA237" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB237" t="inlineStr"/>
+          <t>No hay ningún elemento adicional a las micro:bits, Cautines, Pinzas</t>
+        </is>
+      </c>
+      <c r="AB237" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Contamos con un Kit de robótica </t>
+        </is>
+      </c>
       <c r="AC237" t="inlineStr">
         <is>
           <t>No</t>
@@ -31408,11 +31396,11 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>25/05</t>
+          <t>26/05</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -31422,46 +31410,50 @@
       </c>
       <c r="D238" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>195</t>
         </is>
       </c>
       <c r="E238" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>rosmomo_1972@hotmail.com</t>
+          <t>luz.educatic@gmail.com</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I238" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red</t>
-        </is>
-      </c>
-      <c r="L238" t="inlineStr"/>
+          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hay tv en algunas aulas, pero no todas y los docentes utilizan su computador personal para las proyecciones </t>
+        </is>
+      </c>
       <c r="M238" t="n">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="N238" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="O238" t="n">
         <v>0</v>
@@ -31481,10 +31473,14 @@
       </c>
       <c r="S238" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T238" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
+        </is>
+      </c>
+      <c r="T238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tenemos Scrach instalado y makecode lo usamos online </t>
+        </is>
+      </c>
       <c r="U238" t="inlineStr">
         <is>
           <t>No</t>
@@ -31514,7 +31510,7 @@
       </c>
       <c r="AD238" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE238" t="inlineStr">
@@ -31526,11 +31522,11 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>25/05</t>
+          <t>26/05</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -31540,25 +31536,25 @@
       </c>
       <c r="D239" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>232</t>
         </is>
       </c>
       <c r="E239" t="n">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>inesitamendez66@gmail.com</t>
+          <t>monica.giraldo.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I239" t="n">
@@ -31566,24 +31562,24 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L239" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los docentes tienen un computador por área que se rota por las aulas que todas tienen tv. </t>
+          <t xml:space="preserve">Los televisores están instalados en algunas de las aulas, no en todas </t>
         </is>
       </c>
       <c r="M239" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="N239" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="O239" t="n">
         <v>0</v>
@@ -31595,7 +31591,7 @@
       </c>
       <c r="Q239" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R239" t="n">
@@ -31603,44 +31599,36 @@
       </c>
       <c r="S239" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T239" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
+        </is>
+      </c>
+      <c r="T239" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Algunos de los computadores tienen instalado Scratch2 y PSeInt. Algunos de los computadores se conectan en la nube, cuando esta conexión falla no se pueden usar los computadores, ni siquiera para el paquete de office o las aplicaciones descargadas </t>
+        </is>
+      </c>
       <c r="U239" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V239" t="n">
-        <v>30</v>
-      </c>
-      <c r="W239" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X239" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V239" t="inlineStr"/>
+      <c r="W239" t="inlineStr"/>
+      <c r="X239" t="inlineStr"/>
       <c r="Y239" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z239" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AA239" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits, Cautines, Pinzas</t>
-        </is>
-      </c>
-      <c r="AB239" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Contamos con un Kit de robótica </t>
-        </is>
-      </c>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB239" t="inlineStr"/>
       <c r="AC239" t="inlineStr">
         <is>
           <t>No</t>
@@ -31660,11 +31648,11 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>26/05</t>
+          <t>31/05</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -31674,20 +31662,20 @@
       </c>
       <c r="D240" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>031</t>
         </is>
       </c>
       <c r="E240" t="n">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>luz.educatic@gmail.com</t>
+          <t>angelica.mora.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H240" t="inlineStr">
@@ -31700,27 +31688,27 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t xml:space="preserve">Tablets </t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red, Módem</t>
+          <t>Redes eléctricas, Módem</t>
         </is>
       </c>
       <c r="L240" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay tv en algunas aulas, pero no todas y los docentes utilizan su computador personal para las proyecciones </t>
+          <t xml:space="preserve">Hay tablets en los salones y hace poco se realizó la entrega de aproximadamente 370 tablets, una para cada estudiante. Elementos como el videobeam están guardados en la coordinación, pero con el previo aviso se encuentran al alcance y disposición de los docentes, </t>
         </is>
       </c>
       <c r="M240" t="n">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N240" t="n">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="O240" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="P240" t="inlineStr">
         <is>
@@ -31737,29 +31725,33 @@
       </c>
       <c r="S240" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
-        </is>
-      </c>
-      <c r="T240" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tenemos Scrach instalado y makecode lo usamos online </t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T240" t="inlineStr"/>
       <c r="U240" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V240" t="inlineStr"/>
-      <c r="W240" t="inlineStr"/>
-      <c r="X240" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V240" t="n">
+        <v>300</v>
+      </c>
+      <c r="W240" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X240" t="n">
+        <v>0</v>
+      </c>
       <c r="Y240" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z240" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AA240" t="inlineStr">
         <is>
@@ -31779,18 +31771,22 @@
       </c>
       <c r="AE240" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF240" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF240" t="inlineStr">
+        <is>
+          <t>En la sede hay 3 cartillas impresas de las fichas metodológicas.</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>26/05</t>
+          <t>31/05</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -31800,33 +31796,33 @@
       </c>
       <c r="D241" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>034</t>
         </is>
       </c>
       <c r="E241" t="n">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>monica.giraldo.cfk2022@gmail.com</t>
+          <t>angelica.mora.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Video proyector</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -31836,11 +31832,11 @@
       </c>
       <c r="L241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los televisores están instalados en algunas de las aulas, no en todas </t>
+          <t xml:space="preserve">Actualmente la sede cuenta con 2 salas de informática, una de ellas habilitada recientemente, en la otra funciona la técnica y algunos procesos de formación con el Sena, no obstante, en ambos espacios hay goteras. </t>
         </is>
       </c>
       <c r="M241" t="n">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="N241" t="n">
         <v>55</v>
@@ -31855,7 +31851,7 @@
       </c>
       <c r="Q241" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R241" t="n">
@@ -31863,36 +31859,48 @@
       </c>
       <c r="S241" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T241" t="inlineStr">
         <is>
-          <t xml:space="preserve">Algunos de los computadores tienen instalado Scratch2 y PSeInt. Algunos de los computadores se conectan en la nube, cuando esta conexión falla no se pueden usar los computadores, ni siquiera para el paquete de office o las aplicaciones descargadas </t>
+          <t>Se menciona que todos los programas instalados o que deban instalarse deben contar con licencias</t>
         </is>
       </c>
       <c r="U241" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V241" t="inlineStr"/>
-      <c r="W241" t="inlineStr"/>
-      <c r="X241" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V241" t="n">
+        <v>300</v>
+      </c>
+      <c r="W241" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X241" t="n">
+        <v>0</v>
+      </c>
       <c r="Y241" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z241" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AA241" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB241" t="inlineStr"/>
+          <t>Cables cocodrilo, Soldadura electrónica, Cautines, Pelacables, Pinzas</t>
+        </is>
+      </c>
+      <c r="AB241" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Estos elementos para desarrollo de proyectos de computación física como cables cocodrilo, pelacables, pinzas, entre otros son de mantenimiento básico y los utilizados por los estudiantes de la media técnica en sistemas (grados 10° y 11° de la jornada de la mañana) </t>
+        </is>
+      </c>
       <c r="AC241" t="inlineStr">
         <is>
           <t>No</t>
@@ -31900,7 +31908,7 @@
       </c>
       <c r="AD241" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE241" t="inlineStr">
@@ -31912,11 +31920,11 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>31/05</t>
+          <t>01/06</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -31926,15 +31934,15 @@
       </c>
       <c r="D242" t="inlineStr">
         <is>
-          <t>031</t>
+          <t>159</t>
         </is>
       </c>
       <c r="E242" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>angelica.mora.cfk2022@gmail.com</t>
+          <t>alex.carlosama.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -31952,36 +31960,36 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tablets </t>
+          <t>Televisor, Sistema de audio, Video proyector</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Módem</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Red WIfi</t>
         </is>
       </c>
       <c r="L242" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hay tablets en los salones y hace poco se realizó la entrega de aproximadamente 370 tablets, una para cada estudiante. Elementos como el videobeam están guardados en la coordinación, pero con el previo aviso se encuentran al alcance y disposición de los docentes, </t>
+          <t>La sala #2 de la IE, está fuera de servicio y los computadores se encuentran obsoletos.</t>
         </is>
       </c>
       <c r="M242" t="n">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="N242" t="n">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="O242" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>Algunos de ellos</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 10</t>
         </is>
       </c>
       <c r="R242" t="n">
@@ -31989,7 +31997,7 @@
       </c>
       <c r="S242" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Editor de Imágenes</t>
         </is>
       </c>
       <c r="T242" t="inlineStr"/>
@@ -31999,11 +32007,11 @@
         </is>
       </c>
       <c r="V242" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
       <c r="W242" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X242" t="n">
@@ -32015,14 +32023,18 @@
         </is>
       </c>
       <c r="Z242" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AA242" t="inlineStr">
         <is>
-          <t>No hay ningún elemento adicional a las micro:bits</t>
-        </is>
-      </c>
-      <c r="AB242" t="inlineStr"/>
+          <t>Kit ruta Stem</t>
+        </is>
+      </c>
+      <c r="AB242" t="inlineStr">
+        <is>
+          <t>No existen tales elementos y el kit de ruta stem es tiene muy pocos elementos para trabajar en grupos grandes.</t>
+        </is>
+      </c>
       <c r="AC242" t="inlineStr">
         <is>
           <t>No</t>
@@ -32030,27 +32042,23 @@
       </c>
       <c r="AD242" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE242" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF242" t="inlineStr">
-        <is>
-          <t>En la sede hay 3 cartillas impresas de las fichas metodológicas.</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>31/05</t>
+          <t>01/06</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -32060,33 +32068,33 @@
       </c>
       <c r="D243" t="inlineStr">
         <is>
-          <t>034</t>
+          <t>222</t>
         </is>
       </c>
       <c r="E243" t="n">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>angelica.mora.cfk2022@gmail.com</t>
+          <t>monica.cristancho.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Cinco</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J243" t="inlineStr">
         <is>
-          <t>Video proyector</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K243" t="inlineStr">
@@ -32096,17 +32104,17 @@
       </c>
       <c r="L243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Actualmente la sede cuenta con 2 salas de informática, una de ellas habilitada recientemente, en la otra funciona la técnica y algunos procesos de formación con el Sena, no obstante, en ambos espacios hay goteras. </t>
+          <t>Hay video proyectores disponibles para préstamo</t>
         </is>
       </c>
       <c r="M243" t="n">
-        <v>60</v>
+        <v>112</v>
       </c>
       <c r="N243" t="n">
-        <v>55</v>
+        <v>108</v>
       </c>
       <c r="O243" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P243" t="inlineStr">
         <is>
@@ -32123,12 +32131,12 @@
       </c>
       <c r="S243" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T243" t="inlineStr">
         <is>
-          <t>Se menciona que todos los programas instalados o que deban instalarse deben contar con licencias</t>
+          <t xml:space="preserve">La conectividad no es muy estable y hay algunos equipos que necesitan mantenimiento </t>
         </is>
       </c>
       <c r="U243" t="inlineStr">
@@ -32137,11 +32145,11 @@
         </is>
       </c>
       <c r="V243" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
       <c r="W243" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="X243" t="n">
@@ -32149,20 +32157,20 @@
       </c>
       <c r="Y243" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z243" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA243" t="inlineStr">
         <is>
-          <t>Cables cocodrilo, Soldadura electrónica, Cautines, Pelacables, Pinzas</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB243" t="inlineStr">
         <is>
-          <t xml:space="preserve">Estos elementos para desarrollo de proyectos de computación física como cables cocodrilo, pelacables, pinzas, entre otros son de mantenimiento básico y los utilizados por los estudiantes de la media técnica en sistemas (grados 10° y 11° de la jornada de la mañana) </t>
+          <t xml:space="preserve">Los estudiante llevan los materiales para las practicas </t>
         </is>
       </c>
       <c r="AC243" t="inlineStr">
@@ -32180,15 +32188,19 @@
           <t>No</t>
         </is>
       </c>
-      <c r="AF243" t="inlineStr"/>
+      <c r="AF243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La docente líder maneja este tipo de actividades pero lo demás profes del área de tecnología no. </t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>01/06</t>
+          <t>03/06</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -32198,11 +32210,11 @@
       </c>
       <c r="D244" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>157</t>
         </is>
       </c>
       <c r="E244" t="n">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -32211,7 +32223,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H244" t="inlineStr">
@@ -32229,22 +32241,22 @@
       </c>
       <c r="K244" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Red WIfi</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Redes Wifi</t>
         </is>
       </c>
       <c r="L244" t="inlineStr">
         <is>
-          <t>La sala #2 de la IE, está fuera de servicio y los computadores se encuentran obsoletos.</t>
+          <t>Existen dos salas para el área de TI y la tercer sala es de Biliguismo</t>
         </is>
       </c>
       <c r="M244" t="n">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="N244" t="n">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="O244" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="P244" t="inlineStr">
         <is>
@@ -32261,7 +32273,7 @@
       </c>
       <c r="S244" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Editor de Imágenes</t>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
         </is>
       </c>
       <c r="T244" t="inlineStr"/>
@@ -32283,7 +32295,7 @@
       </c>
       <c r="Y244" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z244" t="n">
@@ -32291,14 +32303,10 @@
       </c>
       <c r="AA244" t="inlineStr">
         <is>
-          <t>Kit ruta Stem</t>
-        </is>
-      </c>
-      <c r="AB244" t="inlineStr">
-        <is>
-          <t>No existen tales elementos y el kit de ruta stem es tiene muy pocos elementos para trabajar en grupos grandes.</t>
-        </is>
-      </c>
+          <t>Kit Ruta Stem y 4 kits arduino</t>
+        </is>
+      </c>
+      <c r="AB244" t="inlineStr"/>
       <c r="AC244" t="inlineStr">
         <is>
           <t>No</t>
@@ -32311,18 +32319,22 @@
       </c>
       <c r="AE244" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="AF244" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AF244" t="inlineStr">
+        <is>
+          <t>El material desconectado corresponde al incluido en el kit de Ruta Stem</t>
+        </is>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>01/06</t>
+          <t>03/06</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -32332,20 +32344,20 @@
       </c>
       <c r="D245" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>125</t>
         </is>
       </c>
       <c r="E245" t="n">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
-          <t>monica.cristancho.cfk2022@gmail.com</t>
+          <t>iriam.ganem.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Cinco</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H245" t="inlineStr">
@@ -32358,7 +32370,7 @@
       </c>
       <c r="J245" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K245" t="inlineStr">
@@ -32368,17 +32380,17 @@
       </c>
       <c r="L245" t="inlineStr">
         <is>
-          <t>Hay video proyectores disponibles para préstamo</t>
+          <t>Solo en algunas alúas de clase hay televisores. y en cuanto a la infraestructura de telecomunicaciones solo hay en la sala de informática.</t>
         </is>
       </c>
       <c r="M245" t="n">
-        <v>112</v>
+        <v>23</v>
       </c>
       <c r="N245" t="n">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="O245" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P245" t="inlineStr">
         <is>
@@ -32387,7 +32399,7 @@
       </c>
       <c r="Q245" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 10 pro</t>
         </is>
       </c>
       <c r="R245" t="n">
@@ -32395,37 +32407,29 @@
       </c>
       <c r="S245" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de software educativo (Ej. cursos de inglés)</t>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
       <c r="T245" t="inlineStr">
         <is>
-          <t xml:space="preserve">La conectividad no es muy estable y hay algunos equipos que necesitan mantenimiento </t>
+          <t xml:space="preserve">Makecode se trabaja en línea </t>
         </is>
       </c>
       <c r="U245" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V245" t="n">
-        <v>10</v>
-      </c>
-      <c r="W245" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X245" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V245" t="inlineStr"/>
+      <c r="W245" t="inlineStr"/>
+      <c r="X245" t="inlineStr"/>
       <c r="Y245" t="inlineStr">
         <is>
           <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z245" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AA245" t="inlineStr">
         <is>
@@ -32434,7 +32438,7 @@
       </c>
       <c r="AB245" t="inlineStr">
         <is>
-          <t xml:space="preserve">Los estudiante llevan los materiales para las practicas </t>
+          <t>Solo tienen las micro:bit</t>
         </is>
       </c>
       <c r="AC245" t="inlineStr">
@@ -32444,27 +32448,27 @@
       </c>
       <c r="AD245" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE245" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AF245" t="inlineStr">
         <is>
-          <t xml:space="preserve">La docente líder maneja este tipo de actividades pero lo demás profes del área de tecnología no. </t>
+          <t xml:space="preserve">Para trabajar actividades desconectadas el material que hay son las fichas de CFK </t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>03/06</t>
+          <t>06/06</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -32474,20 +32478,20 @@
       </c>
       <c r="D246" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>092</t>
         </is>
       </c>
       <c r="E246" t="n">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>alex.carlosama.cfk2022@gmail.com</t>
+          <t>francy.segura.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H246" t="inlineStr">
@@ -32500,27 +32504,23 @@
       </c>
       <c r="J246" t="inlineStr">
         <is>
-          <t>Televisor, Sistema de audio, Video proyector</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K246" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Redes Wifi</t>
-        </is>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>Existen dos salas para el área de TI y la tercer sala es de Biliguismo</t>
-        </is>
-      </c>
+          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+        </is>
+      </c>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="N246" t="n">
-        <v>114</v>
+        <v>45</v>
       </c>
       <c r="O246" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="P246" t="inlineStr">
         <is>
@@ -32529,7 +32529,7 @@
       </c>
       <c r="Q246" t="inlineStr">
         <is>
-          <t>Windows 10</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R246" t="n">
@@ -32537,37 +32537,33 @@
       </c>
       <c r="S246" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T246" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T246" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="U246" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V246" t="n">
-        <v>30</v>
-      </c>
-      <c r="W246" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="X246" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V246" t="inlineStr"/>
+      <c r="W246" t="inlineStr"/>
+      <c r="X246" t="inlineStr"/>
       <c r="Y246" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z246" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AA246" t="inlineStr">
         <is>
-          <t>Kit Ruta Stem y 4 kits arduino</t>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
       <c r="AB246" t="inlineStr"/>
@@ -32578,27 +32574,23 @@
       </c>
       <c r="AD246" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE246" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF246" t="inlineStr">
-        <is>
-          <t>El material desconectado corresponde al incluido en el kit de Ruta Stem</t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>03/06</t>
+          <t>07/06</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -32608,20 +32600,20 @@
       </c>
       <c r="D247" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>229</t>
         </is>
       </c>
       <c r="E247" t="n">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>iriam.ganem.cfk2022@gmail.com</t>
+          <t>monica.cote.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Una</t>
+          <t>Dos</t>
         </is>
       </c>
       <c r="H247" t="inlineStr">
@@ -32634,36 +32626,32 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Televisor, Video proyector, en algunos salones</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
-        </is>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>Solo en algunas alúas de clase hay televisores. y en cuanto a la infraestructura de telecomunicaciones solo hay en la sala de informática.</t>
-        </is>
-      </c>
+          <t>Puertos de cableado estructurado para conexión a la red, en algunos salones</t>
+        </is>
+      </c>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="N247" t="n">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="O247" t="n">
         <v>0</v>
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
-          <t>Windows 10 pro</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R247" t="n">
@@ -32671,14 +32659,10 @@
       </c>
       <c r="S247" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Makecode se trabaja en línea </t>
-        </is>
-      </c>
+          <t>Ninguno de los anteriores</t>
+        </is>
+      </c>
+      <c r="T247" t="inlineStr"/>
       <c r="U247" t="inlineStr">
         <is>
           <t>No</t>
@@ -32689,22 +32673,18 @@
       <c r="X247" t="inlineStr"/>
       <c r="Y247" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z247" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AA247" t="inlineStr">
         <is>
           <t>No hay ningún elemento adicional a las micro:bits</t>
         </is>
       </c>
-      <c r="AB247" t="inlineStr">
-        <is>
-          <t>Solo tienen las micro:bit</t>
-        </is>
-      </c>
+      <c r="AB247" t="inlineStr"/>
       <c r="AC247" t="inlineStr">
         <is>
           <t>No</t>
@@ -32717,22 +32697,18 @@
       </c>
       <c r="AE247" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="AF247" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Para trabajar actividades desconectadas el material que hay son las fichas de CFK </t>
-        </is>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>06/06</t>
+          <t>08/06</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -32742,58 +32718,58 @@
       </c>
       <c r="D248" t="inlineStr">
         <is>
-          <t>092</t>
+          <t>234</t>
         </is>
       </c>
       <c r="E248" t="n">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>francy.segura.cfk2022@gmail.com</t>
+          <t>monica.giraldo.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Algunas sí, pero no todas</t>
         </is>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J248" t="inlineStr">
         <is>
-          <t>No hay más dispositivos en las aulas</t>
+          <t>Televisor</t>
         </is>
       </c>
       <c r="K248" t="inlineStr">
         <is>
-          <t>No hay ninguna infraestructura de telecomunicaciones</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
       <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="N248" t="n">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="O248" t="n">
         <v>0</v>
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>Algunos de ellos</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R248" t="n">
@@ -32804,11 +32780,7 @@
           <t>Paquete de oficina (Ej. Microsoft Office)</t>
         </is>
       </c>
-      <c r="T248" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
+      <c r="T248" t="inlineStr"/>
       <c r="U248" t="inlineStr">
         <is>
           <t>No</t>
@@ -32819,11 +32791,11 @@
       <c r="X248" t="inlineStr"/>
       <c r="Y248" t="inlineStr">
         <is>
-          <t>Tarjetas micro:bit.</t>
+          <t>Arduino, Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z248" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="AA248" t="inlineStr">
         <is>
@@ -32838,7 +32810,7 @@
       </c>
       <c r="AD248" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE248" t="inlineStr">
@@ -32850,11 +32822,11 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>07/06</t>
+          <t>09/06</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -32864,20 +32836,20 @@
       </c>
       <c r="D249" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>011</t>
         </is>
       </c>
       <c r="E249" t="n">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
-          <t>monica.cote.cfk2022@gmail.com</t>
+          <t>Ingmerrcador@gmail.com</t>
         </is>
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Dos</t>
+          <t>Tres</t>
         </is>
       </c>
       <c r="H249" t="inlineStr">
@@ -32890,32 +32862,32 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Televisor, Video proyector, en algunos salones</t>
+          <t>Televisor, Sistema de audio</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
         <is>
-          <t>Puertos de cableado estructurado para conexión a la red, en algunos salones</t>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Solo hay una sala de informatica con cableado estruturado, la otras 2 tienen acceso a internet por redes inalambricas.</t>
         </is>
       </c>
       <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="N249" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="O249" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R249" t="n">
@@ -32923,25 +32895,39 @@
       </c>
       <c r="S249" t="inlineStr">
         <is>
-          <t>Ninguno de los anteriores</t>
-        </is>
-      </c>
-      <c r="T249" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
+        </is>
+      </c>
+      <c r="T249" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Muchos funcionales pero con teclas dañadas.
+</t>
+        </is>
+      </c>
       <c r="U249" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V249" t="inlineStr"/>
-      <c r="W249" t="inlineStr"/>
-      <c r="X249" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V249" t="n">
+        <v>10</v>
+      </c>
+      <c r="W249" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X249" t="n">
+        <v>0</v>
+      </c>
       <c r="Y249" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z249" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AA249" t="inlineStr">
         <is>
@@ -32956,7 +32942,7 @@
       </c>
       <c r="AD249" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Sí</t>
         </is>
       </c>
       <c r="AE249" t="inlineStr">
@@ -32968,11 +32954,11 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>08/06</t>
+          <t>09/06</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -32982,33 +32968,33 @@
       </c>
       <c r="D250" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>033</t>
         </is>
       </c>
       <c r="E250" t="n">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
-          <t>monica.giraldo.cfk2022@gmail.com</t>
+          <t>angelica.mora.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Algunas sí, pero no todas</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I250" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
-          <t>Televisor</t>
+          <t>Televisor, Video proyector</t>
         </is>
       </c>
       <c r="K250" t="inlineStr">
@@ -33016,12 +33002,16 @@
           <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
         </is>
       </c>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En el salón de preescolar hay un televisor, hay un video beam en un salón usado como auditorio y en coordinación también hay un videoproyector que puede usarse con previa solicitud </t>
+        </is>
+      </c>
       <c r="M250" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N250" t="n">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="O250" t="n">
         <v>0</v>
@@ -33033,7 +33023,7 @@
       </c>
       <c r="Q250" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (32 bits)</t>
+          <t>Windows 7 o superior (64 bits)</t>
         </is>
       </c>
       <c r="R250" t="n">
@@ -33041,25 +33031,37 @@
       </c>
       <c r="S250" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office)</t>
-        </is>
-      </c>
-      <c r="T250" t="inlineStr"/>
+          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode)</t>
+        </is>
+      </c>
+      <c r="T250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sala de informática es utilizada todas las tardes por los estudiantes de la media que realizan la técnica en sistemas </t>
+        </is>
+      </c>
       <c r="U250" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="V250" t="inlineStr"/>
-      <c r="W250" t="inlineStr"/>
-      <c r="X250" t="inlineStr"/>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="V250" t="n">
+        <v>300</v>
+      </c>
+      <c r="W250" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="X250" t="n">
+        <v>0</v>
+      </c>
       <c r="Y250" t="inlineStr">
         <is>
-          <t>Arduino, Tarjetas micro:bit.</t>
+          <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z250" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="AA250" t="inlineStr">
         <is>
@@ -33074,7 +33076,7 @@
       </c>
       <c r="AD250" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE250" t="inlineStr">
@@ -33086,7 +33088,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
@@ -33100,20 +33102,20 @@
       </c>
       <c r="D251" t="inlineStr">
         <is>
-          <t>011</t>
+          <t>143</t>
         </is>
       </c>
       <c r="E251" t="n">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
-          <t>Ingmerrcador@gmail.com</t>
+          <t>jhon.balcarce.cfk2022@gmail.com</t>
         </is>
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Tres</t>
+          <t>Una</t>
         </is>
       </c>
       <c r="H251" t="inlineStr">
@@ -33126,32 +33128,32 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>Televisor, Sistema de audio</t>
+          <t>No hay más dispositivos en las aulas</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
         <is>
-          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Solo hay una sala de informatica con cableado estruturado, la otras 2 tienen acceso a internet por redes inalambricas.</t>
+          <t>Redes eléctricas, Módem</t>
         </is>
       </c>
       <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="N251" t="n">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="O251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
-          <t>Windows 7 o superior (64 bits)</t>
+          <t>Windows 7 o superior (32 bits)</t>
         </is>
       </c>
       <c r="R251" t="n">
@@ -33159,39 +33161,25 @@
       </c>
       <c r="S251" t="inlineStr">
         <is>
-          <t>Paquete de oficina (Ej. Microsoft Office), Lenguaje de programación (Ej. MakeCode), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc), Paquete de software educativo (Ej. cursos de inglés)</t>
-        </is>
-      </c>
-      <c r="T251" t="inlineStr">
-        <is>
-          <t xml:space="preserve">
-Muchos funcionales pero con teclas dañadas.
-</t>
-        </is>
-      </c>
+          <t>Paquete de oficina (Ej. Microsoft Office)</t>
+        </is>
+      </c>
+      <c r="T251" t="inlineStr"/>
       <c r="U251" t="inlineStr">
         <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="V251" t="n">
-        <v>10</v>
-      </c>
-      <c r="W251" t="inlineStr">
-        <is>
-          <t>Sí</t>
-        </is>
-      </c>
-      <c r="X251" t="n">
-        <v>0</v>
-      </c>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V251" t="inlineStr"/>
+      <c r="W251" t="inlineStr"/>
+      <c r="X251" t="inlineStr"/>
       <c r="Y251" t="inlineStr">
         <is>
           <t>Tarjetas micro:bit.</t>
         </is>
       </c>
       <c r="Z251" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="AA251" t="inlineStr">
         <is>
@@ -33206,7 +33194,7 @@
       </c>
       <c r="AD251" t="inlineStr">
         <is>
-          <t>Sí</t>
+          <t>No</t>
         </is>
       </c>
       <c r="AE251" t="inlineStr">

--- a/data/descargables/RecursosCFK.xlsx
+++ b/data/descargables/RecursosCFK.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AF251"/>
+  <dimension ref="A1:AF252"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33204,6 +33204,128 @@
       </c>
       <c r="AF251" t="inlineStr"/>
     </row>
+    <row r="252">
+      <c r="A252" t="n">
+        <v>269</v>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>18/06</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Encuesta Equipos</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="E252" t="n">
+        <v>269</v>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>raul.gallego@iejva.edu.co</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>Cuatro</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I252" t="n">
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr">
+        <is>
+          <t>Televisor, Video proyector</t>
+        </is>
+      </c>
+      <c r="K252" t="inlineStr">
+        <is>
+          <t>Redes eléctricas, Puertos de cableado estructurado para conexión a la red, Módem</t>
+        </is>
+      </c>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="n">
+        <v>110</v>
+      </c>
+      <c r="N252" t="n">
+        <v>70</v>
+      </c>
+      <c r="O252" t="n">
+        <v>0</v>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="Q252" t="inlineStr">
+        <is>
+          <t>Windows 7 o superior (64 bits)</t>
+        </is>
+      </c>
+      <c r="R252" t="n">
+        <v>0</v>
+      </c>
+      <c r="S252" t="inlineStr">
+        <is>
+          <t>Paquete de oficina (Ej. Microsoft Office), Paquete de diseño gráfico (Ej. Programas de edición de video, edición de mapas de bits, etc)</t>
+        </is>
+      </c>
+      <c r="T252" t="inlineStr">
+        <is>
+          <t>El software que esta instalado es por intermedio de mesa de ayuda, por lo tanto solo se trabaja con los programas preinstalados autorizados por ellos</t>
+        </is>
+      </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="V252" t="inlineStr"/>
+      <c r="W252" t="inlineStr"/>
+      <c r="X252" t="inlineStr"/>
+      <c r="Y252" t="inlineStr">
+        <is>
+          <t>Tarjetas micro:bit.</t>
+        </is>
+      </c>
+      <c r="Z252" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA252" t="inlineStr">
+        <is>
+          <t>No hay ningún elemento adicional a las micro:bits</t>
+        </is>
+      </c>
+      <c r="AB252" t="inlineStr"/>
+      <c r="AC252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AD252" t="inlineStr">
+        <is>
+          <t>Sí</t>
+        </is>
+      </c>
+      <c r="AE252" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="AF252" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
